--- a/www/IndicatorsPerCountry/Philippines_GDPperCapita_TerritorialRef_1946_2012_CCode_608.xlsx
+++ b/www/IndicatorsPerCountry/Philippines_GDPperCapita_TerritorialRef_1946_2012_CCode_608.xlsx
@@ -375,13 +375,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Philippines_GDPperCapita_TerritorialRef_1946_2012_CCode_608.xlsx
+++ b/www/IndicatorsPerCountry/Philippines_GDPperCapita_TerritorialRef_1946_2012_CCode_608.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="129">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,316 +36,334 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>584</t>
+    <t>931</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>1289</t>
+    <t>995</t>
+  </si>
+  <si>
+    <t>1073</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>1082</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>1191</t>
   </si>
   <si>
     <t>1235</t>
   </si>
   <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>1338</t>
-  </si>
-  <si>
-    <t>1323</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>1366</t>
-  </si>
-  <si>
-    <t>1392</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>1388</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>1348</t>
-  </si>
-  <si>
-    <t>1227</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>1440</t>
-  </si>
-  <si>
-    <t>1508</t>
-  </si>
-  <si>
-    <t>1507</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
-    <t>1186</t>
-  </si>
-  <si>
-    <t>1254</t>
-  </si>
-  <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>1442</t>
-  </si>
-  <si>
-    <t>1448</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>1476</t>
-  </si>
-  <si>
-    <t>1512</t>
-  </si>
-  <si>
-    <t>1537</t>
-  </si>
-  <si>
-    <t>1595</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>1654</t>
-  </si>
-  <si>
-    <t>1690</t>
-  </si>
-  <si>
-    <t>1722</t>
-  </si>
-  <si>
-    <t>1750</t>
-  </si>
-  <si>
-    <t>1764</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1853</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>2033</t>
-  </si>
-  <si>
-    <t>2152</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2262</t>
-  </si>
-  <si>
-    <t>2323</t>
-  </si>
-  <si>
-    <t>2376</t>
-  </si>
-  <si>
-    <t>2396</t>
-  </si>
-  <si>
-    <t>2421</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2176</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>2197.41911377</t>
-  </si>
-  <si>
-    <t>2135.95759073</t>
-  </si>
-  <si>
-    <t>2098.90587745</t>
-  </si>
-  <si>
-    <t>2098.96384126</t>
-  </si>
-  <si>
-    <t>2143.92944913</t>
-  </si>
-  <si>
-    <t>2193.1684083</t>
-  </si>
-  <si>
-    <t>2267.17980645</t>
-  </si>
-  <si>
-    <t>2330.87513506</t>
-  </si>
-  <si>
-    <t>2267.24804494</t>
-  </si>
-  <si>
-    <t>2286.8909564</t>
-  </si>
-  <si>
-    <t>2335.62006784</t>
-  </si>
-  <si>
-    <t>2349.03751453</t>
-  </si>
-  <si>
-    <t>2381.90559267</t>
-  </si>
-  <si>
-    <t>2447.97640253</t>
-  </si>
-  <si>
-    <t>2556.8154288</t>
-  </si>
-  <si>
-    <t>2625.23565062</t>
-  </si>
-  <si>
-    <t>2708.04309756</t>
-  </si>
-  <si>
-    <t>2829.25433319</t>
-  </si>
-  <si>
-    <t>2888.33372475</t>
-  </si>
-  <si>
-    <t>2864.40149995</t>
-  </si>
-  <si>
-    <t>3023.65651393</t>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>2133</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2168</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>2149</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1835</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>2165</t>
+  </si>
+  <si>
+    <t>2248</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2393</t>
+  </si>
+  <si>
+    <t>2353</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>2542</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>2603</t>
+  </si>
+  <si>
+    <t>2636</t>
+  </si>
+  <si>
+    <t>2694</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>2954</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>3154</t>
+  </si>
+  <si>
+    <t>3241</t>
+  </si>
+  <si>
+    <t>3430</t>
+  </si>
+  <si>
+    <t>3524</t>
+  </si>
+  <si>
+    <t>3606</t>
+  </si>
+  <si>
+    <t>3703</t>
+  </si>
+  <si>
+    <t>3787</t>
+  </si>
+  <si>
+    <t>3819</t>
+  </si>
+  <si>
+    <t>3859</t>
+  </si>
+  <si>
+    <t>3837</t>
+  </si>
+  <si>
+    <t>3469</t>
+  </si>
+  <si>
+    <t>3135</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>3218</t>
+  </si>
+  <si>
+    <t>3355</t>
+  </si>
+  <si>
+    <t>3481</t>
+  </si>
+  <si>
+    <t>3502</t>
+  </si>
+  <si>
+    <t>3432.58275087477</t>
+  </si>
+  <si>
+    <t>3399.24261795966</t>
+  </si>
+  <si>
+    <t>3427.12943028549</t>
+  </si>
+  <si>
+    <t>3529.00733468657</t>
+  </si>
+  <si>
+    <t>3637.62556131435</t>
+  </si>
+  <si>
+    <t>3790.77878882303</t>
+  </si>
+  <si>
+    <t>3928.01438143073</t>
+  </si>
+  <si>
+    <t>3852.63274317198</t>
+  </si>
+  <si>
+    <t>3917.08864311008</t>
+  </si>
+  <si>
+    <t>4033.56089188223</t>
+  </si>
+  <si>
+    <t>4090.21832899351</t>
+  </si>
+  <si>
+    <t>4181.37574820598</t>
+  </si>
+  <si>
+    <t>4333.21381169289</t>
+  </si>
+  <si>
+    <t>4562.50267556432</t>
+  </si>
+  <si>
+    <t>4721.00072707225</t>
+  </si>
+  <si>
+    <t>4908.6168623321</t>
+  </si>
+  <si>
+    <t>5172.66187101868</t>
+  </si>
+  <si>
+    <t>5328.68244964514</t>
+  </si>
+  <si>
+    <t>5338.30624330191</t>
+  </si>
+  <si>
+    <t>5694.04672885807</t>
+  </si>
+  <si>
+    <t>5851</t>
+  </si>
+  <si>
+    <t>6144</t>
+  </si>
+  <si>
+    <t>6472</t>
+  </si>
+  <si>
+    <t>6763</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>7410</t>
   </si>
   <si>
     <t>Description</t>
@@ -3696,6 +3714,108 @@
         <v>110</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3711,50 +3831,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
